--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -5557,7 +5557,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -5557,7 +5557,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>52</v>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>52</v>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -381,10 +381,10 @@
 </t>
   </si>
   <si>
-    <t>Closing the gap registration</t>
-  </si>
-  <si>
-    <t>Closing the Gap registration indicator for an Australian patient.</t>
+    <t>Patient Closing the Gap Program Eligibility Indication</t>
+  </si>
+  <si>
+    <t>Indication for eligibility for the Closing the Gap program.</t>
   </si>
   <si>
     <t>mothersMaidenName</t>
@@ -19860,7 +19860,7 @@
         <v>42</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G155" t="s" s="2">
         <v>44</v>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="640">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -268,7 +268,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/birthPlace]]} {[]}
+    <t xml:space="preserve">Extension {birthPlace}
 </t>
   </si>
   <si>
@@ -364,7 +364,7 @@
     <t>indigenousStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/indigenous-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>closingTheGapRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>mothersMaidenName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-mothersMaidenName]]} {[]}
+    <t xml:space="preserve">Extension {patient-mothersMaidenName}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -473,7 +473,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -501,7 +501,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
 </t>
   </si>
   <si>
@@ -535,7 +535,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -547,7 +547,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -569,7 +569,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
 </t>
   </si>
   <si>
@@ -579,7 +579,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -624,7 +624,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
+    <t>IHI</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -730,10 +730,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -757,7 +757,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -775,7 +775,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -797,7 +797,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -845,16 +845,13 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -878,7 +875,7 @@
     <t>Patient.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -956,7 +953,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/dva</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -994,16 +991,13 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -1038,9 +1032,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>commonwealthSeniorsHealthCard</t>
   </si>
   <si>
@@ -1058,7 +1049,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
+    <t>Commonwealth Seniors Health Card</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values.</t>
@@ -1090,7 +1081,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
+    <t>Medical Record Number</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1128,9 +1119,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1203,7 +1191,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1220,7 +1208,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -1232,7 +1220,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1260,7 +1248,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1321,7 +1309,7 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1361,7 +1349,7 @@
     <t>accuracyIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator}
 </t>
   </si>
   <si>
@@ -1377,7 +1365,7 @@
     <t>birthTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthTime]]} {[]}
+    <t xml:space="preserve">Extension {patient-birthTime}
 </t>
   </si>
   <si>
@@ -1390,7 +1378,7 @@
     <t>Patient.birthDate.value</t>
   </si>
   <si>
-    <t xml:space="preserve">null {[]} {[]}
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -1406,8 +1394,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
+    <t>boolean
+dateTime</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1487,7 +1475,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1542,8 +1530,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
+    <t>boolean
+integer</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1569,7 +1557,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1591,7 +1579,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1714,7 +1702,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -1946,7 +1934,7 @@
     <t>General Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -2019,7 +2007,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2100,67 +2088,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -2196,7 +2184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO193"/>
+  <dimension ref="A1:AN193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2219,7 +2207,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -7535,7 +7523,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7635,10 +7623,10 @@
         <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7649,7 +7637,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7749,10 +7737,10 @@
         <v>144</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>234</v>
@@ -7778,7 +7766,7 @@
         <v>44</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>44</v>
@@ -7863,7 +7851,7 @@
         <v>241</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>243</v>
@@ -7949,7 +7937,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8061,7 +8049,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8175,7 +8163,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8198,16 +8186,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8257,31 +8245,31 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH53" t="s" s="2">
+      <c r="AI53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -8289,7 +8277,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8312,92 +8300,92 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8522,7 +8510,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>44</v>
@@ -8547,10 +8535,10 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -8615,7 +8603,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>135</v>
@@ -9003,10 +8991,10 @@
         <v>193</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>196</v>
@@ -9464,7 +9452,7 @@
         <v>214</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>216</v>
@@ -9577,10 +9565,10 @@
         <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9591,7 +9579,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9691,13 +9679,13 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9720,7 +9708,7 @@
         <v>44</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>44</v>
@@ -10008,7 +9996,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
@@ -10033,10 +10021,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
@@ -10489,10 +10477,10 @@
         <v>193</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>196</v>
@@ -10508,7 +10496,7 @@
         <v>44</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>44</v>
@@ -10950,7 +10938,7 @@
         <v>214</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>216</v>
@@ -10963,7 +10951,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11063,10 +11051,10 @@
         <v>65</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -11077,7 +11065,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>44</v>
@@ -11177,13 +11165,13 @@
         <v>144</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11206,7 +11194,7 @@
         <v>44</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>44</v>
@@ -11494,7 +11482,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>44</v>
@@ -11519,10 +11507,10 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
@@ -11975,10 +11963,10 @@
         <v>193</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>196</v>
@@ -11994,7 +11982,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>44</v>
@@ -12436,7 +12424,7 @@
         <v>214</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>216</v>
@@ -12449,7 +12437,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12549,10 +12537,10 @@
         <v>65</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12563,7 +12551,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12663,13 +12651,13 @@
         <v>144</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12692,7 +12680,7 @@
         <v>44</v>
       </c>
       <c r="V92" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W92" t="s" s="2">
         <v>44</v>
@@ -12980,7 +12968,7 @@
         <v>129</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>44</v>
@@ -13005,10 +12993,10 @@
         <v>130</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
@@ -13461,10 +13449,10 @@
         <v>193</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>196</v>
@@ -13480,7 +13468,7 @@
         <v>44</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>44</v>
@@ -13922,7 +13910,7 @@
         <v>214</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>216</v>
@@ -13935,7 +13923,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>44</v>
@@ -14035,10 +14023,10 @@
         <v>65</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -14049,7 +14037,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>44</v>
@@ -14149,13 +14137,13 @@
         <v>144</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14178,7 +14166,7 @@
         <v>44</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W105" t="s" s="2">
         <v>44</v>
@@ -14466,7 +14454,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>44</v>
@@ -14491,10 +14479,10 @@
         <v>130</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14947,10 +14935,10 @@
         <v>193</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>196</v>
@@ -14966,7 +14954,7 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>44</v>
@@ -15408,7 +15396,7 @@
         <v>214</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>216</v>
@@ -15421,7 +15409,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>44</v>
@@ -15521,10 +15509,10 @@
         <v>65</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -15635,10 +15623,10 @@
         <v>144</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>234</v>
@@ -15861,7 +15849,7 @@
         <v>248</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>250</v>
@@ -15952,7 +15940,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>44</v>
@@ -15977,10 +15965,10 @@
         <v>130</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
@@ -16433,10 +16421,10 @@
         <v>193</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>196</v>
@@ -16452,7 +16440,7 @@
         <v>44</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>44</v>
@@ -16894,7 +16882,7 @@
         <v>214</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>216</v>
@@ -16907,7 +16895,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>44</v>
@@ -17007,10 +16995,10 @@
         <v>65</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
@@ -17121,10 +17109,10 @@
         <v>144</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>234</v>
@@ -17347,7 +17335,7 @@
         <v>248</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>250</v>
@@ -17435,7 +17423,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17547,7 +17535,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17661,7 +17649,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17687,13 +17675,13 @@
         <v>144</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17743,7 +17731,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17752,7 +17740,7 @@
         <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>44</v>
@@ -17775,7 +17763,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17801,13 +17789,13 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17857,7 +17845,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17872,7 +17860,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -17889,7 +17877,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17915,13 +17903,13 @@
         <v>144</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17971,7 +17959,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18003,7 +17991,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18026,22 +18014,22 @@
         <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18087,7 +18075,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18102,13 +18090,13 @@
         <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18119,7 +18107,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18142,19 +18130,19 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18203,7 +18191,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18218,16 +18206,16 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18235,7 +18223,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18258,19 +18246,19 @@
         <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18319,7 +18307,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18334,16 +18322,16 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18351,7 +18339,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18377,16 +18365,16 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18414,52 +18402,52 @@
         <v>170</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18467,14 +18455,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E143" t="s" s="2">
         <v>42</v>
@@ -18492,19 +18480,19 @@
         <v>53</v>
       </c>
       <c r="J143" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18553,7 +18541,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18568,24 +18556,24 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18614,7 +18602,7 @@
         <v>145</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18697,7 +18685,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18807,10 +18795,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18832,16 +18820,16 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18923,10 +18911,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>44</v>
@@ -18948,13 +18936,13 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19037,7 +19025,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19060,13 +19048,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19117,7 +19105,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19149,7 +19137,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19172,19 +19160,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19233,7 +19221,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19248,7 +19236,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>148</v>
@@ -19257,7 +19245,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19265,10 +19253,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19290,19 +19278,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19351,7 +19339,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19366,7 +19354,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>148</v>
@@ -19375,7 +19363,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19383,10 +19371,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19408,19 +19396,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19469,7 +19457,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19484,7 +19472,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>148</v>
@@ -19493,7 +19481,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19501,10 +19489,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19526,19 +19514,19 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19587,7 +19575,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19602,7 +19590,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>148</v>
@@ -19611,7 +19599,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19619,10 +19607,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19644,19 +19632,19 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19705,7 +19693,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19720,7 +19708,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>148</v>
@@ -19729,7 +19717,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19737,7 +19725,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19766,7 +19754,7 @@
         <v>145</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19849,7 +19837,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19959,10 +19947,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>44</v>
@@ -19984,16 +19972,16 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20055,7 +20043,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20075,7 +20063,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20098,13 +20086,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20155,7 +20143,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20187,7 +20175,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20210,19 +20198,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K158" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20271,7 +20259,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20286,16 +20274,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20303,7 +20291,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20329,14 +20317,14 @@
         <v>193</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20364,52 +20352,52 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF159" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG159" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ159" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK159" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20417,7 +20405,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20440,19 +20428,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K160" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L160" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20501,7 +20489,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20516,7 +20504,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>148</v>
@@ -20525,7 +20513,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20533,7 +20521,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20556,17 +20544,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20615,7 +20603,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20630,7 +20618,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>148</v>
@@ -20639,7 +20627,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20647,7 +20635,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20670,19 +20658,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M162" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20731,7 +20719,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20743,10 +20731,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>148</v>
@@ -20763,7 +20751,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20875,7 +20863,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20989,11 +20977,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21018,7 +21006,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21071,7 +21059,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21103,7 +21091,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21129,14 +21117,14 @@
         <v>193</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21165,7 +21153,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21183,7 +21171,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21198,7 +21186,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>148</v>
@@ -21207,7 +21195,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21215,7 +21203,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21238,17 +21226,17 @@
         <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21297,7 +21285,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21312,7 +21300,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>148</v>
@@ -21321,7 +21309,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21329,7 +21317,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21352,19 +21340,19 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21413,7 +21401,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21428,7 +21416,7 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>148</v>
@@ -21437,7 +21425,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21445,7 +21433,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21468,17 +21456,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21527,7 +21515,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21542,7 +21530,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>148</v>
@@ -21551,7 +21539,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21559,7 +21547,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21585,14 +21573,14 @@
         <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21620,10 +21608,10 @@
         <v>170</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21641,7 +21629,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21656,7 +21644,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>148</v>
@@ -21665,7 +21653,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21673,7 +21661,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21696,17 +21684,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21755,7 +21743,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21764,13 +21752,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>148</v>
@@ -21779,7 +21767,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21787,7 +21775,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21813,10 +21801,10 @@
         <v>241</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21867,7 +21855,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21882,7 +21870,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>148</v>
@@ -21899,7 +21887,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21922,19 +21910,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21983,7 +21971,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21995,10 +21983,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>148</v>
@@ -22015,7 +22003,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22127,7 +22115,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22241,11 +22229,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22270,7 +22258,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22323,7 +22311,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22355,7 +22343,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22381,16 +22369,16 @@
         <v>193</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22415,13 +22403,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22439,7 +22427,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22454,7 +22442,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>148</v>
@@ -22463,7 +22451,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22471,7 +22459,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22497,16 +22485,16 @@
         <v>193</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22531,32 +22519,32 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="X178" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="Y178" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD178" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE178" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="X178" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
       </c>
@@ -22570,7 +22558,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>148</v>
@@ -22579,7 +22567,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22587,7 +22575,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22613,14 +22601,14 @@
         <v>193</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22645,13 +22633,13 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>44</v>
@@ -22669,7 +22657,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22684,7 +22672,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>148</v>
@@ -22701,7 +22689,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22724,19 +22712,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22785,7 +22773,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22797,13 +22785,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22817,7 +22805,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22929,7 +22917,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23043,11 +23031,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23072,7 +23060,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23125,7 +23113,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23157,7 +23145,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23183,16 +23171,16 @@
         <v>193</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23221,7 +23209,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23239,7 +23227,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23254,16 +23242,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23271,7 +23259,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23294,19 +23282,19 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23355,7 +23343,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23370,16 +23358,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23387,14 +23375,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23412,16 +23400,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23471,7 +23459,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23486,7 +23474,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>148</v>
@@ -23495,7 +23483,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23503,14 +23491,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23528,19 +23516,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23589,7 +23577,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23604,10 +23592,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23621,7 +23609,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23644,19 +23632,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23705,7 +23693,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23717,10 +23705,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>148</v>
@@ -23737,7 +23725,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23849,7 +23837,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23963,11 +23951,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23992,7 +23980,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24045,7 +24033,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24077,7 +24065,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24100,16 +24088,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24159,7 +24147,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24183,7 +24171,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24191,7 +24179,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24217,10 +24205,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24250,10 +24238,10 @@
         <v>170</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24271,22 +24259,22 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AF193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG193" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI193" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ193" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>148</v>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="644">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -268,7 +268,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {birthPlace}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/birthPlace]]} {[]}
 </t>
   </si>
   <si>
@@ -364,7 +364,7 @@
     <t>indigenousStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/indigenous-status]]} {[]}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>closingTheGapRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration]]} {[]}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>mothersMaidenName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-mothersMaidenName}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-mothersMaidenName]]} {[]}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -473,7 +473,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -501,7 +501,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
 </t>
   </si>
   <si>
@@ -535,7 +535,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -547,7 +547,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -569,7 +569,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
 </t>
   </si>
   <si>
@@ -579,7 +579,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier.</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -624,7 +624,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>IHI</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -730,10 +730,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -757,7 +757,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
   </si>
   <si>
     <t>16</t>
@@ -775,7 +775,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -797,7 +797,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -845,13 +845,16 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -875,7 +878,7 @@
     <t>Patient.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -953,7 +956,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/dva</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -991,13 +994,16 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
-    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -1032,6 +1038,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
+  </si>
+  <si>
     <t>commonwealthSeniorsHealthCard</t>
   </si>
   <si>
@@ -1049,7 +1058,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Commonwealth Seniors Health Card</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values.</t>
@@ -1081,7 +1090,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Medical Record Number</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1119,6 +1128,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1191,7 +1203,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -1208,7 +1220,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>true</t>
+    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -1220,7 +1232,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
+    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
 </t>
   </si>
   <si>
@@ -1248,7 +1260,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -1309,7 +1321,7 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t xml:space="preserve">date
+    <t xml:space="preserve">date {[]} {[]}
 </t>
   </si>
   <si>
@@ -1349,7 +1361,7 @@
     <t>accuracyIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator]]} {[]}
 </t>
   </si>
   <si>
@@ -1365,7 +1377,7 @@
     <t>birthTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthTime}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthTime]]} {[]}
 </t>
   </si>
   <si>
@@ -1378,7 +1390,7 @@
     <t>Patient.birthDate.value</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">null {[]} {[]}
 </t>
   </si>
   <si>
@@ -1394,8 +1406,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean
-dateTime</t>
+    <t>boolean {[]} {[]}
+dateTime {[]} {[]}</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1475,7 +1487,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {[]} {[]}
 </t>
   </si>
   <si>
@@ -1530,8 +1542,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean
-integer</t>
+    <t>boolean {[]} {[]}
+integer {[]} {[]}</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1557,7 +1569,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment
+    <t xml:space="preserve">Attachment {[]} {[]}
 </t>
   </si>
   <si>
@@ -1579,7 +1591,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1702,7 +1714,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -1934,7 +1946,7 @@
     <t>General Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
 </t>
   </si>
   <si>
@@ -2007,7 +2019,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -2088,67 +2100,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -2184,7 +2196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN193"/>
+  <dimension ref="A1:AO193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2207,7 +2219,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -7523,7 +7535,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7623,10 +7635,10 @@
         <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7637,7 +7649,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7737,10 +7749,10 @@
         <v>144</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>234</v>
@@ -7766,7 +7778,7 @@
         <v>44</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>44</v>
@@ -7851,7 +7863,7 @@
         <v>241</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>243</v>
@@ -7937,7 +7949,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8049,7 +8061,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8163,7 +8175,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8186,16 +8198,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8245,7 +8257,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -8254,13 +8266,13 @@
         <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -8269,7 +8281,7 @@
         <v>44</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -8277,7 +8289,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8300,23 +8312,23 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>44</v>
@@ -8361,7 +8373,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8370,13 +8382,13 @@
         <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -8385,7 +8397,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8510,7 +8522,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>44</v>
@@ -8535,10 +8547,10 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -8603,7 +8615,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>135</v>
@@ -8991,10 +9003,10 @@
         <v>193</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>196</v>
@@ -9452,7 +9464,7 @@
         <v>214</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>216</v>
@@ -9565,10 +9577,10 @@
         <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9579,7 +9591,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9679,13 +9691,13 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9708,7 +9720,7 @@
         <v>44</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>44</v>
@@ -9996,7 +10008,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
@@ -10021,10 +10033,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
@@ -10477,10 +10489,10 @@
         <v>193</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>196</v>
@@ -10496,7 +10508,7 @@
         <v>44</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>44</v>
@@ -10938,7 +10950,7 @@
         <v>214</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>216</v>
@@ -10951,7 +10963,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11051,10 +11063,10 @@
         <v>65</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -11065,7 +11077,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>44</v>
@@ -11165,13 +11177,13 @@
         <v>144</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11194,7 +11206,7 @@
         <v>44</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>44</v>
@@ -11482,7 +11494,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>44</v>
@@ -11507,10 +11519,10 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
@@ -11963,10 +11975,10 @@
         <v>193</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>196</v>
@@ -11982,7 +11994,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>44</v>
@@ -12424,7 +12436,7 @@
         <v>214</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>216</v>
@@ -12437,7 +12449,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12537,10 +12549,10 @@
         <v>65</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12551,7 +12563,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12651,13 +12663,13 @@
         <v>144</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12680,7 +12692,7 @@
         <v>44</v>
       </c>
       <c r="V92" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="W92" t="s" s="2">
         <v>44</v>
@@ -12968,7 +12980,7 @@
         <v>129</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>44</v>
@@ -12993,10 +13005,10 @@
         <v>130</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
@@ -13449,10 +13461,10 @@
         <v>193</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>196</v>
@@ -13468,7 +13480,7 @@
         <v>44</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>44</v>
@@ -13910,7 +13922,7 @@
         <v>214</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>216</v>
@@ -13923,7 +13935,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>44</v>
@@ -14023,10 +14035,10 @@
         <v>65</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -14037,7 +14049,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>44</v>
@@ -14137,13 +14149,13 @@
         <v>144</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14166,7 +14178,7 @@
         <v>44</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="W105" t="s" s="2">
         <v>44</v>
@@ -14454,7 +14466,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>44</v>
@@ -14479,10 +14491,10 @@
         <v>130</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14935,10 +14947,10 @@
         <v>193</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>196</v>
@@ -14954,7 +14966,7 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>44</v>
@@ -15396,7 +15408,7 @@
         <v>214</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>216</v>
@@ -15409,7 +15421,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>44</v>
@@ -15509,10 +15521,10 @@
         <v>65</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -15623,10 +15635,10 @@
         <v>144</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>234</v>
@@ -15849,7 +15861,7 @@
         <v>248</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>250</v>
@@ -15940,7 +15952,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>44</v>
@@ -15965,10 +15977,10 @@
         <v>130</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
@@ -16421,10 +16433,10 @@
         <v>193</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>196</v>
@@ -16440,7 +16452,7 @@
         <v>44</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>44</v>
@@ -16882,7 +16894,7 @@
         <v>214</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>216</v>
@@ -16895,7 +16907,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>44</v>
@@ -16995,10 +17007,10 @@
         <v>65</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
@@ -17109,10 +17121,10 @@
         <v>144</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>234</v>
@@ -17335,7 +17347,7 @@
         <v>248</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>250</v>
@@ -17423,7 +17435,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17535,7 +17547,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17649,7 +17661,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17675,13 +17687,13 @@
         <v>144</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17731,7 +17743,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17740,7 +17752,7 @@
         <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>44</v>
@@ -17763,7 +17775,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17789,13 +17801,13 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17845,7 +17857,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17860,7 +17872,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -17877,7 +17889,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17903,13 +17915,13 @@
         <v>144</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17959,7 +17971,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -17991,7 +18003,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18014,22 +18026,22 @@
         <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18075,7 +18087,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18090,13 +18102,13 @@
         <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18107,7 +18119,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18130,19 +18142,19 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18191,7 +18203,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18206,16 +18218,16 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18223,7 +18235,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18246,19 +18258,19 @@
         <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18307,7 +18319,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18322,16 +18334,16 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18339,7 +18351,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18365,16 +18377,16 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18402,10 +18414,10 @@
         <v>170</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>44</v>
@@ -18423,7 +18435,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18438,16 +18450,16 @@
         <v>44</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18455,14 +18467,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E143" t="s" s="2">
         <v>42</v>
@@ -18480,19 +18492,19 @@
         <v>53</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18541,7 +18553,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18556,24 +18568,24 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18602,7 +18614,7 @@
         <v>145</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18685,7 +18697,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18795,10 +18807,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18820,16 +18832,16 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18911,10 +18923,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>44</v>
@@ -18936,13 +18948,13 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19025,7 +19037,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19048,13 +19060,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19105,7 +19117,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19137,7 +19149,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19160,19 +19172,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19221,7 +19233,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19236,7 +19248,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>148</v>
@@ -19245,7 +19257,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19253,10 +19265,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19278,19 +19290,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19339,7 +19351,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19354,7 +19366,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>148</v>
@@ -19363,7 +19375,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19371,10 +19383,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19396,19 +19408,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19457,7 +19469,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19472,7 +19484,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>148</v>
@@ -19481,7 +19493,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19489,10 +19501,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19514,19 +19526,19 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19575,7 +19587,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19590,7 +19602,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>148</v>
@@ -19599,7 +19611,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19607,10 +19619,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19632,19 +19644,19 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19693,7 +19705,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19708,7 +19720,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>148</v>
@@ -19717,7 +19729,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19725,7 +19737,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19754,7 +19766,7 @@
         <v>145</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19837,7 +19849,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19947,10 +19959,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>44</v>
@@ -19972,16 +19984,16 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20043,7 +20055,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20063,7 +20075,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20086,13 +20098,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20143,7 +20155,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20175,7 +20187,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20198,19 +20210,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20259,7 +20271,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20274,16 +20286,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20291,7 +20303,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20317,14 +20329,14 @@
         <v>193</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20352,29 +20364,29 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD159" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE159" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Y159" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
       </c>
@@ -20388,16 +20400,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20405,7 +20417,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20428,19 +20440,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20489,7 +20501,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20504,7 +20516,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>148</v>
@@ -20513,7 +20525,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20521,7 +20533,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20544,17 +20556,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20603,7 +20615,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20618,7 +20630,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>148</v>
@@ -20627,7 +20639,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20635,7 +20647,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20658,19 +20670,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20719,7 +20731,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20731,10 +20743,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>148</v>
@@ -20751,7 +20763,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20863,7 +20875,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20977,11 +20989,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21006,7 +21018,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21059,7 +21071,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21091,7 +21103,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21117,14 +21129,14 @@
         <v>193</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21153,25 +21165,25 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE166" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21186,7 +21198,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>148</v>
@@ -21195,7 +21207,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21203,7 +21215,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21226,17 +21238,17 @@
         <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21285,7 +21297,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21300,7 +21312,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>148</v>
@@ -21309,7 +21321,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21317,7 +21329,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21340,19 +21352,19 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21401,7 +21413,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21416,7 +21428,7 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>148</v>
@@ -21425,7 +21437,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21433,7 +21445,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21456,17 +21468,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21515,7 +21527,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21530,7 +21542,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>148</v>
@@ -21539,7 +21551,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21547,7 +21559,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21573,14 +21585,14 @@
         <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21608,10 +21620,10 @@
         <v>170</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21629,7 +21641,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21644,7 +21656,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>148</v>
@@ -21653,7 +21665,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21661,7 +21673,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21684,17 +21696,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21743,7 +21755,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21752,13 +21764,13 @@
         <v>52</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>148</v>
@@ -21767,7 +21779,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21775,7 +21787,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21801,10 +21813,10 @@
         <v>241</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21855,7 +21867,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21870,7 +21882,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>148</v>
@@ -21887,7 +21899,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21910,19 +21922,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21971,7 +21983,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21983,10 +21995,10 @@
         <v>44</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>148</v>
@@ -22003,7 +22015,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22115,7 +22127,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22229,11 +22241,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22258,7 +22270,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22311,7 +22323,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22343,7 +22355,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22369,16 +22381,16 @@
         <v>193</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22403,13 +22415,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22427,7 +22439,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22442,7 +22454,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>148</v>
@@ -22451,7 +22463,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22459,7 +22471,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22485,16 +22497,16 @@
         <v>193</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22519,13 +22531,13 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22543,7 +22555,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22558,7 +22570,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>148</v>
@@ -22567,7 +22579,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22575,7 +22587,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22601,14 +22613,14 @@
         <v>193</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22633,32 +22645,32 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Y179" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="Y179" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
       </c>
@@ -22672,7 +22684,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>148</v>
@@ -22689,7 +22701,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22712,19 +22724,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22773,7 +22785,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22785,13 +22797,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22805,7 +22817,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22917,7 +22929,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23031,11 +23043,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23060,7 +23072,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23113,7 +23125,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23145,7 +23157,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23171,16 +23183,16 @@
         <v>193</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23209,7 +23221,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23227,7 +23239,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23242,16 +23254,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23259,7 +23271,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23282,19 +23294,19 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23343,7 +23355,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23358,16 +23370,16 @@
         <v>44</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23375,14 +23387,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23400,16 +23412,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23459,7 +23471,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23474,7 +23486,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>148</v>
@@ -23483,7 +23495,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23491,14 +23503,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23516,19 +23528,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23577,7 +23589,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23592,10 +23604,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23609,7 +23621,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23632,19 +23644,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23693,7 +23705,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23705,10 +23717,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>148</v>
@@ -23725,7 +23737,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23837,7 +23849,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23951,11 +23963,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23980,7 +23992,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24033,7 +24045,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24065,7 +24077,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24088,16 +24100,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24147,7 +24159,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24171,7 +24183,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24179,7 +24191,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24205,10 +24217,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24238,10 +24250,10 @@
         <v>170</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24259,7 +24271,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>52</v>
@@ -24274,7 +24286,7 @@
         <v>44</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>148</v>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6974" uniqueCount="639">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -268,7 +268,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -320,7 +320,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -343,7 +343,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/birthPlace]]} {[]}
+    <t xml:space="preserve">Extension {birthPlace}
 </t>
   </si>
   <si>
@@ -358,13 +358,13 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>indigenousStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/indigenous-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/indigenous-status}
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>closingTheGapRegistration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/closing-the-gap-registration}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>mothersMaidenName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-mothersMaidenName]]} {[]}
+    <t xml:space="preserve">Extension {patient-mothersMaidenName}
 </t>
   </si>
   <si>
@@ -428,7 +428,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -473,7 +473,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -501,7 +501,7 @@
     <t>ihiStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-status}
 </t>
   </si>
   <si>
@@ -535,7 +535,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-status</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -547,7 +547,7 @@
     <t>valueCoding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -569,7 +569,7 @@
     <t>ihiRecordStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/ihi-record-status]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/ihi-record-status}
 </t>
   </si>
   <si>
@@ -579,7 +579,7 @@
     <t>Individual Healthcare Identifier (IHI) value record status associated with an IHI identifier.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org.au/fhir/StructureDefinition/ihi-record-status"/&gt;</t>
+    <t>http://hl7.org.au/fhir/StructureDefinition/ihi-record-status</t>
   </si>
   <si>
     <t>IHI Record Status Code</t>
@@ -624,7 +624,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="IHI"/&gt;</t>
+    <t>IHI</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -730,10 +730,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/hi/ihi/1.0"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/hi/ihi/1.0</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -757,7 +757,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>16</t>
@@ -775,7 +775,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -797,7 +797,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -845,16 +845,13 @@
     <t>Medicare number descriptive text.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medicare Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Medicare number</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/medicare-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/medicare-number</t>
   </si>
   <si>
     <t>Medicare number including optional individual reference number</t>
@@ -878,7 +875,7 @@
     <t>Patient.identifier.period.start</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -956,7 +953,7 @@
     <t>DVA number assigned uri.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/dva"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/dva</t>
   </si>
   <si>
     <t>DVA number</t>
@@ -994,16 +991,13 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Health Care Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN)</t>
   </si>
   <si>
     <t>Namespace for Centrelink Customer Reference Number (CRN) values.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://ns.electronichealth.net.au/id/centrelink-customer-reference-number"/&gt;</t>
+    <t>http://ns.electronichealth.net.au/id/centrelink-customer-reference-number</t>
   </si>
   <si>
     <t>Centrelink CRN</t>
@@ -1038,9 +1032,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Pensioner Concession Card Number"/&gt;</t>
-  </si>
-  <si>
     <t>commonwealthSeniorsHealthCard</t>
   </si>
   <si>
@@ -1058,7 +1049,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Commonwealth Seniors Health Card"/&gt;</t>
+    <t>Commonwealth Seniors Health Card</t>
   </si>
   <si>
     <t>Namespace for Customer Reference Number (CRN) values.</t>
@@ -1090,7 +1081,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical Record Number"/&gt;</t>
+    <t>Medical Record Number</t>
   </si>
   <si>
     <t>Medical record number system namespace</t>
@@ -1128,9 +1119,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Private Health Insurance Member Number"/&gt;</t>
-  </si>
-  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -1203,7 +1191,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1220,7 +1208,7 @@
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>true</t>
   </si>
   <si>
     <t>statusCode</t>
@@ -1232,7 +1220,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1]]} {[]}
+    <t xml:space="preserve">HumanName {http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/humanname-dh-base-1}
 </t>
   </si>
   <si>
@@ -1260,7 +1248,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -1321,7 +1309,7 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -1361,7 +1349,7 @@
     <t>accuracyIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-accuracy-indicator}
 </t>
   </si>
   <si>
@@ -1377,7 +1365,7 @@
     <t>birthTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/patient-birthTime]]} {[]}
+    <t xml:space="preserve">Extension {patient-birthTime}
 </t>
   </si>
   <si>
@@ -1390,7 +1378,7 @@
     <t>Patient.birthDate.value</t>
   </si>
   <si>
-    <t xml:space="preserve">null {[]} {[]}
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -1406,8 +1394,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
+    <t>boolean
+dateTime</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1471,10 +1459,6 @@
     <t>In some circumstances, systems may only have date or datetime data that has unknown or estimated parts.  This coding establishes the acuraccy of the day, month and year parts.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Patient.deceasedDateTime.value</t>
   </si>
   <si>
@@ -1487,7 +1471,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1542,8 +1526,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
+    <t>boolean
+integer</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1569,7 +1553,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1591,7 +1575,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1714,7 +1698,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -1946,7 +1930,7 @@
     <t>General Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -2019,7 +2003,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -2100,67 +2084,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -2196,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO193"/>
+  <dimension ref="A1:AN193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2219,7 +2203,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.0234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -7535,7 +7519,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>44</v>
@@ -7635,10 +7619,10 @@
         <v>65</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
@@ -7649,7 +7633,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>44</v>
@@ -7749,10 +7733,10 @@
         <v>144</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>234</v>
@@ -7778,7 +7762,7 @@
         <v>44</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>44</v>
@@ -7863,7 +7847,7 @@
         <v>241</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>243</v>
@@ -7949,7 +7933,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8061,7 +8045,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8175,7 +8159,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8198,16 +8182,16 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8257,31 +8241,31 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH53" t="s" s="2">
+      <c r="AI53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>44</v>
@@ -8289,7 +8273,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8312,92 +8296,92 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8522,7 +8506,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>44</v>
@@ -8547,10 +8531,10 @@
         <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
@@ -8615,7 +8599,7 @@
         <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>135</v>
@@ -9003,10 +8987,10 @@
         <v>193</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>196</v>
@@ -9464,7 +9448,7 @@
         <v>214</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>216</v>
@@ -9577,10 +9561,10 @@
         <v>65</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9591,7 +9575,7 @@
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>44</v>
@@ -9691,13 +9675,13 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9720,7 +9704,7 @@
         <v>44</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>44</v>
@@ -10008,7 +9992,7 @@
         <v>129</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>44</v>
@@ -10033,10 +10017,10 @@
         <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
@@ -10489,10 +10473,10 @@
         <v>193</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>196</v>
@@ -10508,7 +10492,7 @@
         <v>44</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>44</v>
@@ -10950,7 +10934,7 @@
         <v>214</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>216</v>
@@ -10963,7 +10947,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>44</v>
@@ -11063,10 +11047,10 @@
         <v>65</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
@@ -11077,7 +11061,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>44</v>
@@ -11177,13 +11161,13 @@
         <v>144</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11206,7 +11190,7 @@
         <v>44</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W79" t="s" s="2">
         <v>44</v>
@@ -11494,7 +11478,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>44</v>
@@ -11519,10 +11503,10 @@
         <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
@@ -11975,10 +11959,10 @@
         <v>193</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>196</v>
@@ -11994,7 +11978,7 @@
         <v>44</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>44</v>
@@ -12436,7 +12420,7 @@
         <v>214</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>216</v>
@@ -12449,7 +12433,7 @@
       </c>
       <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="R90" t="s" s="2">
         <v>44</v>
@@ -12549,10 +12533,10 @@
         <v>65</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
@@ -12563,7 +12547,7 @@
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>44</v>
@@ -12663,13 +12647,13 @@
         <v>144</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12692,7 +12676,7 @@
         <v>44</v>
       </c>
       <c r="V92" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W92" t="s" s="2">
         <v>44</v>
@@ -12980,7 +12964,7 @@
         <v>129</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>44</v>
@@ -13005,10 +12989,10 @@
         <v>130</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
@@ -13461,10 +13445,10 @@
         <v>193</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>196</v>
@@ -13480,7 +13464,7 @@
         <v>44</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>44</v>
@@ -13922,7 +13906,7 @@
         <v>214</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>216</v>
@@ -13935,7 +13919,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>44</v>
@@ -14035,10 +14019,10 @@
         <v>65</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
@@ -14049,7 +14033,7 @@
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>44</v>
@@ -14149,13 +14133,13 @@
         <v>144</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -14178,7 +14162,7 @@
         <v>44</v>
       </c>
       <c r="V105" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="W105" t="s" s="2">
         <v>44</v>
@@ -14466,7 +14450,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>44</v>
@@ -14491,10 +14475,10 @@
         <v>130</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14947,10 +14931,10 @@
         <v>193</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>196</v>
@@ -14966,7 +14950,7 @@
         <v>44</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>44</v>
@@ -15408,7 +15392,7 @@
         <v>214</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>216</v>
@@ -15421,7 +15405,7 @@
       </c>
       <c r="P116" s="2"/>
       <c r="Q116" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="R116" t="s" s="2">
         <v>44</v>
@@ -15521,10 +15505,10 @@
         <v>65</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" t="s" s="2">
@@ -15635,10 +15619,10 @@
         <v>144</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>234</v>
@@ -15861,7 +15845,7 @@
         <v>248</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>250</v>
@@ -15952,7 +15936,7 @@
         <v>129</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>44</v>
@@ -15977,10 +15961,10 @@
         <v>130</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
@@ -16433,10 +16417,10 @@
         <v>193</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>196</v>
@@ -16452,7 +16436,7 @@
         <v>44</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="S125" t="s" s="2">
         <v>44</v>
@@ -16894,7 +16878,7 @@
         <v>214</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>216</v>
@@ -16907,7 +16891,7 @@
       </c>
       <c r="P129" s="2"/>
       <c r="Q129" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="R129" t="s" s="2">
         <v>44</v>
@@ -17007,10 +16991,10 @@
         <v>65</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
@@ -17121,10 +17105,10 @@
         <v>144</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M131" t="s" s="2">
         <v>234</v>
@@ -17347,7 +17331,7 @@
         <v>248</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>250</v>
@@ -17435,7 +17419,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17547,7 +17531,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17661,7 +17645,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17687,13 +17671,13 @@
         <v>144</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
@@ -17743,7 +17727,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17752,7 +17736,7 @@
         <v>52</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>44</v>
@@ -17775,7 +17759,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17801,13 +17785,13 @@
         <v>130</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -17857,7 +17841,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17872,7 +17856,7 @@
         <v>44</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>44</v>
@@ -17889,7 +17873,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17915,13 +17899,13 @@
         <v>144</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
@@ -17971,7 +17955,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -18003,7 +17987,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18026,22 +18010,22 @@
         <v>53</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P139" s="2"/>
       <c r="Q139" t="s" s="2">
@@ -18087,7 +18071,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18102,13 +18086,13 @@
         <v>44</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>44</v>
@@ -18119,7 +18103,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18142,19 +18126,19 @@
         <v>53</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>44</v>
@@ -18203,7 +18187,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18218,16 +18202,16 @@
         <v>44</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>44</v>
@@ -18235,7 +18219,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18258,19 +18242,19 @@
         <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -18319,7 +18303,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18334,16 +18318,16 @@
         <v>44</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>44</v>
@@ -18351,7 +18335,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18377,16 +18361,16 @@
         <v>71</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -18414,52 +18398,52 @@
         <v>170</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>44</v>
@@ -18467,14 +18451,14 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E143" t="s" s="2">
         <v>42</v>
@@ -18492,19 +18476,19 @@
         <v>53</v>
       </c>
       <c r="J143" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>44</v>
@@ -18553,7 +18537,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18568,24 +18552,24 @@
         <v>44</v>
       </c>
       <c r="AJ143" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18614,7 +18598,7 @@
         <v>145</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18697,7 +18681,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18807,10 +18791,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18832,16 +18816,16 @@
         <v>44</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -18923,10 +18907,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>44</v>
@@ -18948,13 +18932,13 @@
         <v>44</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19037,7 +19021,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19060,13 +19044,13 @@
         <v>44</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19117,7 +19101,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19149,7 +19133,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19172,19 +19156,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -19233,7 +19217,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19248,7 +19232,7 @@
         <v>44</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>148</v>
@@ -19257,7 +19241,7 @@
         <v>44</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>44</v>
@@ -19265,10 +19249,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>44</v>
@@ -19290,19 +19274,19 @@
         <v>53</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>44</v>
@@ -19351,7 +19335,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19366,7 +19350,7 @@
         <v>44</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>148</v>
@@ -19375,7 +19359,7 @@
         <v>44</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>44</v>
@@ -19383,10 +19367,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>44</v>
@@ -19408,19 +19392,19 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19469,7 +19453,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19484,7 +19468,7 @@
         <v>44</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>148</v>
@@ -19493,7 +19477,7 @@
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19501,10 +19485,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>44</v>
@@ -19526,19 +19510,19 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19587,7 +19571,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19602,7 +19586,7 @@
         <v>44</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK152" t="s" s="2">
         <v>148</v>
@@ -19611,7 +19595,7 @@
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19619,10 +19603,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>44</v>
@@ -19644,19 +19628,19 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19705,7 +19689,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19720,7 +19704,7 @@
         <v>44</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AK153" t="s" s="2">
         <v>148</v>
@@ -19729,7 +19713,7 @@
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19737,7 +19721,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19766,7 +19750,7 @@
         <v>145</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19849,7 +19833,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19959,10 +19943,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>44</v>
@@ -19984,16 +19968,16 @@
         <v>44</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20055,7 +20039,7 @@
         <v>107</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>457</v>
+        <v>108</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>44</v>
@@ -20075,7 +20059,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20098,13 +20082,13 @@
         <v>44</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -20155,7 +20139,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20187,7 +20171,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20210,19 +20194,19 @@
         <v>53</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20271,7 +20255,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20286,16 +20270,16 @@
         <v>44</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>44</v>
@@ -20303,7 +20287,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20329,14 +20313,14 @@
         <v>193</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20364,10 +20348,10 @@
         <v>75</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>44</v>
@@ -20385,7 +20369,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20400,16 +20384,16 @@
         <v>44</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20417,7 +20401,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20440,19 +20424,19 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20501,7 +20485,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20516,7 +20500,7 @@
         <v>44</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>148</v>
@@ -20525,7 +20509,7 @@
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20533,7 +20517,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20556,17 +20540,17 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20615,7 +20599,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20630,7 +20614,7 @@
         <v>44</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>148</v>
@@ -20639,7 +20623,7 @@
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20647,7 +20631,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20670,19 +20654,19 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20731,7 +20715,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20743,10 +20727,10 @@
         <v>44</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>148</v>
@@ -20763,7 +20747,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20875,7 +20859,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20989,11 +20973,11 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21018,7 +21002,7 @@
         <v>125</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>127</v>
@@ -21071,7 +21055,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21103,7 +21087,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21129,14 +21113,14 @@
         <v>193</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21165,7 +21149,7 @@
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>44</v>
@@ -21183,7 +21167,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21198,7 +21182,7 @@
         <v>44</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>148</v>
@@ -21207,7 +21191,7 @@
         <v>44</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>44</v>
@@ -21215,7 +21199,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21238,17 +21222,17 @@
         <v>44</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>44</v>
@@ -21297,7 +21281,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21312,7 +21296,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>148</v>
@@ -21321,7 +21305,7 @@
         <v>44</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>44</v>
@@ -21329,7 +21313,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21352,19 +21336,19 @@
         <v>44</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="K168" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>44</v>
@@ -21413,7 +21397,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21428,7 +21412,7 @@
         <v>44</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>148</v>
@@ -21437,7 +21421,7 @@
         <v>44</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>44</v>
@@ -21445,7 +21429,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21468,17 +21452,17 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21527,7 +21511,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21542,7 +21526,7 @@
         <v>44</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AK169" t="s" s="2">
         <v>148</v>
@@ -21551,7 +21535,7 @@
         <v>44</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>44</v>
@@ -21559,7 +21543,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21585,14 +21569,14 @@
         <v>71</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21620,10 +21604,10 @@
         <v>170</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21641,7 +21625,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21656,7 +21640,7 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>148</v>
@@ -21665,7 +21649,7 @@
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21673,7 +21657,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21696,17 +21680,17 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21755,22 +21739,22 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH171" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="AF171" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="AI171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>148</v>
@@ -21779,7 +21763,7 @@
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21787,7 +21771,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21813,10 +21797,10 @@
         <v>241</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -21867,7 +21851,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21882,7 +21866,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>148</v>
@@ -21899,7 +21883,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21922,19 +21906,19 @@
         <v>53</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21983,22 +21967,22 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF173" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG173" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH173" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI173" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="AF173" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="AJ173" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>148</v>
@@ -22015,7 +21999,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22127,7 +22111,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22241,11 +22225,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22270,7 +22254,7 @@
         <v>125</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M176" t="s" s="2">
         <v>127</v>
@@ -22323,7 +22307,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22355,7 +22339,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -22381,16 +22365,16 @@
         <v>193</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22415,13 +22399,13 @@
         <v>44</v>
       </c>
       <c r="W177" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>44</v>
@@ -22439,7 +22423,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>52</v>
@@ -22454,7 +22438,7 @@
         <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AK177" t="s" s="2">
         <v>148</v>
@@ -22463,7 +22447,7 @@
         <v>44</v>
       </c>
       <c r="AM177" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AN177" t="s" s="2">
         <v>44</v>
@@ -22471,7 +22455,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22497,16 +22481,16 @@
         <v>193</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22531,13 +22515,13 @@
         <v>44</v>
       </c>
       <c r="W178" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22555,7 +22539,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22570,7 +22554,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>148</v>
@@ -22579,7 +22563,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22587,7 +22571,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22613,14 +22597,14 @@
         <v>193</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22645,13 +22629,13 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>44</v>
@@ -22669,7 +22653,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22684,7 +22668,7 @@
         <v>44</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AK179" t="s" s="2">
         <v>148</v>
@@ -22701,7 +22685,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22724,19 +22708,19 @@
         <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -22785,7 +22769,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22797,13 +22781,13 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>44</v>
@@ -22817,7 +22801,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22929,7 +22913,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23043,11 +23027,11 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -23072,7 +23056,7 @@
         <v>125</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M183" t="s" s="2">
         <v>127</v>
@@ -23125,7 +23109,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23157,7 +23141,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23183,16 +23167,16 @@
         <v>193</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
@@ -23221,7 +23205,7 @@
       </c>
       <c r="X184" s="2"/>
       <c r="Y184" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="Z184" t="s" s="2">
         <v>44</v>
@@ -23239,7 +23223,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>52</v>
@@ -23254,16 +23238,16 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>44</v>
@@ -23271,7 +23255,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23294,19 +23278,19 @@
         <v>44</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23355,31 +23339,31 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AF185" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG185" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI185" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AF185" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG185" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI185" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>605</v>
-      </c>
       <c r="AK185" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>44</v>
@@ -23387,14 +23371,14 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E186" t="s" s="2">
         <v>42</v>
@@ -23412,16 +23396,16 @@
         <v>44</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -23471,7 +23455,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -23486,7 +23470,7 @@
         <v>44</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AK186" t="s" s="2">
         <v>148</v>
@@ -23495,7 +23479,7 @@
         <v>44</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>44</v>
@@ -23503,14 +23487,14 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D187" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E187" t="s" s="2">
         <v>42</v>
@@ -23528,19 +23512,19 @@
         <v>53</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -23589,7 +23573,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -23604,10 +23588,10 @@
         <v>44</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>44</v>
@@ -23621,7 +23605,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -23644,19 +23628,19 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -23705,7 +23689,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23717,10 +23701,10 @@
         <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AJ188" t="s" s="2">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AK188" t="s" s="2">
         <v>148</v>
@@ -23737,7 +23721,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23849,7 +23833,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23963,11 +23947,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -23992,7 +23976,7 @@
         <v>125</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M191" t="s" s="2">
         <v>127</v>
@@ -24045,7 +24029,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24077,7 +24061,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24100,16 +24084,16 @@
         <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" t="s" s="2">
@@ -24159,7 +24143,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>52</v>
@@ -24183,7 +24167,7 @@
         <v>44</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>44</v>
@@ -24191,7 +24175,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24217,10 +24201,10 @@
         <v>71</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -24250,10 +24234,10 @@
         <v>170</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="Z193" t="s" s="2">
         <v>44</v>
@@ -24271,7 +24255,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>52</v>
@@ -24286,7 +24270,7 @@
         <v>44</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>148</v>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -160,7 +160,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-pat-0:If there is a birth time its date shall be the birth date {birthDate.extension.where(url='http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}inv-dh-pat-03:The patient shall at least have an identifier or a name {Patient.identifier.exists() or Patient.name.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-pat-0:If there is a birth time its date shall be the birth date {birthDate.extension.where(url='http://hl7.org/fhir/StructureDefinition/patient-birthTime').exists() implies birthDate.extension('http://hl7.org/fhir/StructureDefinition/patient-birthTime').value.toString().substring(0,10) = birthDate.toString()}inv-dh-pat-03:The patient shall at least have an identifier or a name {identifier.exists() or name.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -20515,7 +20515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
         <v>482</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>42</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>44</v>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7395" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7395" uniqueCount="648">
   <si>
     <t>Path</t>
   </si>
@@ -1439,10 +1439,6 @@
   </si>
   <si>
     <t>Patient.birthDate.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Primitive value for date</t>
@@ -20658,13 +20654,13 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K162" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K162" t="s" s="2">
+      <c r="L162" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -20715,7 +20711,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20747,7 +20743,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20770,19 +20766,19 @@
         <v>53</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K163" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="L163" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
@@ -20829,7 +20825,7 @@
         <v>182</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -20844,7 +20840,7 @@
         <v>44</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>114</v>
@@ -20853,7 +20849,7 @@
         <v>44</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>44</v>
@@ -20861,10 +20857,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>44</v>
@@ -20889,16 +20885,16 @@
         <v>381</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L164" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="M164" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
@@ -20947,7 +20943,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -20962,7 +20958,7 @@
         <v>44</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>114</v>
@@ -20971,7 +20967,7 @@
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -20979,10 +20975,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>44</v>
@@ -21007,16 +21003,16 @@
         <v>286</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L165" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="M165" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>44</v>
@@ -21065,7 +21061,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21080,7 +21076,7 @@
         <v>44</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>114</v>
@@ -21089,7 +21085,7 @@
         <v>44</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>44</v>
@@ -21097,7 +21093,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21209,7 +21205,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21319,7 +21315,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>431</v>
@@ -21435,7 +21431,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21458,13 +21454,13 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>447</v>
+        <v>286</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -21515,7 +21511,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21547,7 +21543,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21573,16 +21569,16 @@
         <v>130</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="M170" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21631,7 +21627,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21646,16 +21642,16 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AK170" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AK170" t="s" s="2">
+      <c r="AL170" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM170" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AL170" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM170" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21663,7 +21659,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21689,14 +21685,14 @@
         <v>207</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21724,52 +21720,52 @@
         <v>75</v>
       </c>
       <c r="X171" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Y171" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Y171" t="s" s="2">
+      <c r="Z171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE171" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF171" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG171" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ171" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="Z171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE171" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF171" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG171" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ171" t="s" s="2">
+      <c r="AK171" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AK171" t="s" s="2">
+      <c r="AL171" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM171" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AL171" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21777,7 +21773,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21800,19 +21796,19 @@
         <v>44</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="K172" t="s" s="2">
+      <c r="L172" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>44</v>
@@ -21861,7 +21857,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21876,7 +21872,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>114</v>
@@ -21885,7 +21881,7 @@
         <v>44</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>44</v>
@@ -21893,7 +21889,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21916,17 +21912,17 @@
         <v>44</v>
       </c>
       <c r="J173" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K173" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K173" t="s" s="2">
+      <c r="L173" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21975,7 +21971,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21990,7 +21986,7 @@
         <v>44</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>114</v>
@@ -21999,7 +21995,7 @@
         <v>44</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>44</v>
@@ -22007,7 +22003,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22030,19 +22026,19 @@
         <v>44</v>
       </c>
       <c r="J174" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K174" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="K174" t="s" s="2">
+      <c r="L174" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L174" t="s" s="2">
+      <c r="M174" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>44</v>
@@ -22091,7 +22087,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22103,10 +22099,10 @@
         <v>44</v>
       </c>
       <c r="AI174" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AJ174" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>114</v>
@@ -22123,7 +22119,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22235,7 +22231,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22349,11 +22345,11 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22378,7 +22374,7 @@
         <v>152</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>119</v>
@@ -22431,7 +22427,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22463,7 +22459,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22489,14 +22485,14 @@
         <v>207</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22525,7 +22521,7 @@
       </c>
       <c r="X178" s="2"/>
       <c r="Y178" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22543,7 +22539,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22558,7 +22554,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>114</v>
@@ -22567,7 +22563,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22575,7 +22571,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22610,7 +22606,7 @@
         <v>393</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22659,7 +22655,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22691,7 +22687,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22717,13 +22713,13 @@
         <v>399</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="M180" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N180" t="s" s="2">
         <v>403</v>
@@ -22775,7 +22771,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22799,7 +22795,7 @@
         <v>44</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>44</v>
@@ -22807,7 +22803,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22833,14 +22829,14 @@
         <v>130</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L181" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>44</v>
@@ -22889,7 +22885,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -22904,7 +22900,7 @@
         <v>44</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>114</v>
@@ -22913,7 +22909,7 @@
         <v>44</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>44</v>
@@ -22921,7 +22917,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22950,11 +22946,11 @@
         <v>408</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>44</v>
@@ -23003,7 +22999,7 @@
         <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
@@ -23027,7 +23023,7 @@
         <v>44</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>44</v>
@@ -23035,7 +23031,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23058,17 +23054,17 @@
         <v>44</v>
       </c>
       <c r="J183" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K183" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="K183" t="s" s="2">
+      <c r="L183" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>44</v>
@@ -23117,7 +23113,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23126,13 +23122,13 @@
         <v>52</v>
       </c>
       <c r="AH183" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AI183" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ183" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AI183" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ183" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>114</v>
@@ -23141,7 +23137,7 @@
         <v>44</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>44</v>
@@ -23149,7 +23145,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23175,10 +23171,10 @@
         <v>255</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="L184" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -23229,7 +23225,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
@@ -23244,7 +23240,7 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>114</v>
@@ -23261,7 +23257,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23284,19 +23280,19 @@
         <v>53</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L185" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="M185" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23345,7 +23341,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23357,10 +23353,10 @@
         <v>44</v>
       </c>
       <c r="AI185" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AJ185" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AJ185" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AK185" t="s" s="2">
         <v>114</v>
@@ -23377,7 +23373,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23489,7 +23485,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23603,11 +23599,11 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -23632,7 +23628,7 @@
         <v>152</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M188" t="s" s="2">
         <v>119</v>
@@ -23685,7 +23681,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23717,7 +23713,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23743,16 +23739,16 @@
         <v>207</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L189" t="s" s="2">
+      <c r="M189" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M189" t="s" s="2">
+      <c r="N189" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -23777,14 +23773,14 @@
         <v>44</v>
       </c>
       <c r="W189" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="X189" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="X189" t="s" s="2">
+      <c r="Y189" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="Y189" t="s" s="2">
-        <v>568</v>
-      </c>
       <c r="Z189" t="s" s="2">
         <v>44</v>
       </c>
@@ -23801,7 +23797,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>52</v>
@@ -23816,7 +23812,7 @@
         <v>44</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>114</v>
@@ -23825,7 +23821,7 @@
         <v>44</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>44</v>
@@ -23833,7 +23829,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23859,16 +23855,16 @@
         <v>207</v>
       </c>
       <c r="K190" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L190" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L190" t="s" s="2">
+      <c r="M190" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M190" t="s" s="2">
+      <c r="N190" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -23893,46 +23889,46 @@
         <v>44</v>
       </c>
       <c r="W190" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="X190" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Y190" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Y190" t="s" s="2">
+      <c r="Z190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE190" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AF190" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG190" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI190" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ190" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>114</v>
@@ -23941,7 +23937,7 @@
         <v>44</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>44</v>
@@ -23949,7 +23945,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23975,14 +23971,14 @@
         <v>207</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>44</v>
@@ -24007,46 +24003,46 @@
         <v>44</v>
       </c>
       <c r="W191" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="X191" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Y191" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Y191" t="s" s="2">
+      <c r="Z191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE191" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AF191" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG191" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI191" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ191" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>114</v>
@@ -24063,7 +24059,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24086,19 +24082,19 @@
         <v>44</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K192" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L192" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L192" t="s" s="2">
+      <c r="M192" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>44</v>
@@ -24147,7 +24143,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
@@ -24159,13 +24155,13 @@
         <v>44</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AJ192" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AK192" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>44</v>
@@ -24179,7 +24175,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24291,7 +24287,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24405,11 +24401,11 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -24434,7 +24430,7 @@
         <v>152</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M195" t="s" s="2">
         <v>119</v>
@@ -24487,7 +24483,7 @@
         <v>44</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>42</v>
@@ -24519,7 +24515,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24545,16 +24541,16 @@
         <v>207</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="M196" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>44</v>
@@ -24583,49 +24579,49 @@
       </c>
       <c r="X196" s="2"/>
       <c r="Y196" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ196" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="Z196" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI196" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ196" t="s" s="2">
+      <c r="AK196" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="AK196" t="s" s="2">
+      <c r="AL196" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM196" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AL196" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM196" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>44</v>
@@ -24633,7 +24629,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24659,16 +24655,16 @@
         <v>381</v>
       </c>
       <c r="K197" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L197" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="L197" t="s" s="2">
+      <c r="M197" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M197" t="s" s="2">
+      <c r="N197" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>44</v>
@@ -24717,7 +24713,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -24732,16 +24728,16 @@
         <v>44</v>
       </c>
       <c r="AJ197" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AK197" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="AK197" t="s" s="2">
+      <c r="AL197" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM197" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="AL197" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM197" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>44</v>
@@ -24749,14 +24745,14 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="D198" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="D198" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="E198" t="s" s="2">
         <v>42</v>
@@ -24774,16 +24770,16 @@
         <v>44</v>
       </c>
       <c r="J198" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="K198" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="K198" t="s" s="2">
+      <c r="L198" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L198" t="s" s="2">
+      <c r="M198" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
@@ -24833,7 +24829,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>42</v>
@@ -24848,7 +24844,7 @@
         <v>44</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>114</v>
@@ -24857,7 +24853,7 @@
         <v>44</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>44</v>
@@ -24865,14 +24861,14 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E199" t="s" s="2">
         <v>42</v>
@@ -24890,19 +24886,19 @@
         <v>53</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>44</v>
@@ -24951,7 +24947,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -24966,10 +24962,10 @@
         <v>44</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>44</v>
@@ -24983,7 +24979,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25006,19 +25002,19 @@
         <v>53</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L200" t="s" s="2">
+      <c r="M200" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="M200" t="s" s="2">
+      <c r="N200" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>44</v>
@@ -25067,7 +25063,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -25079,10 +25075,10 @@
         <v>44</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>114</v>
@@ -25099,7 +25095,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25211,7 +25207,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25325,11 +25321,11 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25354,7 +25350,7 @@
         <v>152</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>119</v>
@@ -25407,7 +25403,7 @@
         <v>44</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>42</v>
@@ -25439,7 +25435,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25462,16 +25458,16 @@
         <v>53</v>
       </c>
       <c r="J204" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="K204" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="K204" t="s" s="2">
+      <c r="L204" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="L204" t="s" s="2">
+      <c r="M204" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
@@ -25521,7 +25517,7 @@
         <v>44</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>52</v>
@@ -25545,7 +25541,7 @@
         <v>44</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>44</v>
@@ -25553,7 +25549,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25579,10 +25575,10 @@
         <v>71</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -25612,43 +25608,43 @@
         <v>185</v>
       </c>
       <c r="X205" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="Y205" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="Y205" t="s" s="2">
+      <c r="Z205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE205" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AF205" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG205" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI205" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ205" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="Z205" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA205" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB205" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC205" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD205" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE205" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AF205" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG205" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH205" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI205" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ205" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>114</v>

--- a/output/EventSummary/patient-dh-base-1.xlsx
+++ b/output/EventSummary/patient-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7395" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7395" uniqueCount="649">
   <si>
     <t>Path</t>
   </si>
@@ -1439,6 +1439,10 @@
   </si>
   <si>
     <t>Patient.birthDate.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Primitive value for date</t>
@@ -20654,13 +20658,13 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -20711,7 +20715,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20743,7 +20747,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20766,19 +20770,19 @@
         <v>53</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
@@ -20825,7 +20829,7 @@
         <v>182</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -20840,7 +20844,7 @@
         <v>44</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK163" t="s" s="2">
         <v>114</v>
@@ -20849,7 +20853,7 @@
         <v>44</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>44</v>
@@ -20857,10 +20861,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>44</v>
@@ -20885,16 +20889,16 @@
         <v>381</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
@@ -20943,7 +20947,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -20958,7 +20962,7 @@
         <v>44</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>114</v>
@@ -20967,7 +20971,7 @@
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -20975,10 +20979,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>44</v>
@@ -21003,16 +21007,16 @@
         <v>286</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>44</v>
@@ -21061,7 +21065,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -21076,7 +21080,7 @@
         <v>44</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>114</v>
@@ -21085,7 +21089,7 @@
         <v>44</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>44</v>
@@ -21093,7 +21097,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21205,7 +21209,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21315,7 +21319,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>431</v>
@@ -21431,7 +21435,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21454,13 +21458,13 @@
         <v>44</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>286</v>
+        <v>447</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -21511,7 +21515,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21543,7 +21547,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21569,16 +21573,16 @@
         <v>130</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21627,7 +21631,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>42</v>
@@ -21642,16 +21646,16 @@
         <v>44</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21659,7 +21663,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21685,14 +21689,14 @@
         <v>207</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21720,10 +21724,10 @@
         <v>75</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>44</v>
@@ -21741,7 +21745,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21756,16 +21760,16 @@
         <v>44</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21773,7 +21777,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21796,19 +21800,19 @@
         <v>44</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>44</v>
@@ -21857,7 +21861,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21872,7 +21876,7 @@
         <v>44</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>114</v>
@@ -21881,7 +21885,7 @@
         <v>44</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>44</v>
@@ -21889,7 +21893,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21912,17 +21916,17 @@
         <v>44</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21971,7 +21975,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21986,7 +21990,7 @@
         <v>44</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AK173" t="s" s="2">
         <v>114</v>
@@ -21995,7 +21999,7 @@
         <v>44</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>44</v>
@@ -22003,7 +22007,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22026,19 +22030,19 @@
         <v>44</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>44</v>
@@ -22087,7 +22091,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22099,10 +22103,10 @@
         <v>44</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>114</v>
@@ -22119,7 +22123,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22231,7 +22235,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22345,11 +22349,11 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22374,7 +22378,7 @@
         <v>152</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>119</v>
@@ -22427,7 +22431,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22459,7 +22463,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22485,14 +22489,14 @@
         <v>207</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -22521,7 +22525,7 @@
       </c>
       <c r="X178" s="2"/>
       <c r="Y178" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>44</v>
@@ -22539,7 +22543,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
@@ -22554,7 +22558,7 @@
         <v>44</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>114</v>
@@ -22563,7 +22567,7 @@
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22571,7 +22575,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22606,7 +22610,7 @@
         <v>393</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
@@ -22655,7 +22659,7 @@
         <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -22687,7 +22691,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -22713,13 +22717,13 @@
         <v>399</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N180" t="s" s="2">
         <v>403</v>
@@ -22771,7 +22775,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -22795,7 +22799,7 @@
         <v>44</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>44</v>
@@ -22803,7 +22807,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -22829,14 +22833,14 @@
         <v>130</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>44</v>
@@ -22885,7 +22889,7 @@
         <v>44</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -22900,7 +22904,7 @@
         <v>44</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>114</v>
@@ -22909,7 +22913,7 @@
         <v>44</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>44</v>
@@ -22917,7 +22921,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -22946,11 +22950,11 @@
         <v>408</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>44</v>
@@ -22999,7 +23003,7 @@
         <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
@@ -23023,7 +23027,7 @@
         <v>44</v>
       </c>
       <c r="AM182" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN182" t="s" s="2">
         <v>44</v>
@@ -23031,7 +23035,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23054,17 +23058,17 @@
         <v>44</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>44</v>
@@ -23113,7 +23117,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -23122,13 +23126,13 @@
         <v>52</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AI183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>114</v>
@@ -23137,7 +23141,7 @@
         <v>44</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>44</v>
@@ -23145,7 +23149,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23171,10 +23175,10 @@
         <v>255</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -23225,7 +23229,7 @@
         <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
@@ -23240,7 +23244,7 @@
         <v>44</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AK184" t="s" s="2">
         <v>114</v>
@@ -23257,7 +23261,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23280,19 +23284,19 @@
         <v>53</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -23341,7 +23345,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -23353,10 +23357,10 @@
         <v>44</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AK185" t="s" s="2">
         <v>114</v>
@@ -23373,7 +23377,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -23485,7 +23489,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -23599,11 +23603,11 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -23628,7 +23632,7 @@
         <v>152</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M188" t="s" s="2">
         <v>119</v>
@@ -23681,7 +23685,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -23713,7 +23717,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -23739,16 +23743,16 @@
         <v>207</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -23773,13 +23777,13 @@
         <v>44</v>
       </c>
       <c r="W189" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="X189" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>44</v>
@@ -23797,7 +23801,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>52</v>
@@ -23812,7 +23816,7 @@
         <v>44</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>114</v>
@@ -23821,7 +23825,7 @@
         <v>44</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>44</v>
@@ -23829,7 +23833,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -23855,16 +23859,16 @@
         <v>207</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -23889,13 +23893,13 @@
         <v>44</v>
       </c>
       <c r="W190" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="X190" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z190" t="s" s="2">
         <v>44</v>
@@ -23913,7 +23917,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -23928,7 +23932,7 @@
         <v>44</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>114</v>
@@ -23937,7 +23941,7 @@
         <v>44</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>44</v>
@@ -23945,7 +23949,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -23971,14 +23975,14 @@
         <v>207</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>44</v>
@@ -24003,13 +24007,13 @@
         <v>44</v>
       </c>
       <c r="W191" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>44</v>
@@ -24027,7 +24031,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -24042,7 +24046,7 @@
         <v>44</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>114</v>
@@ -24059,7 +24063,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24082,19 +24086,19 @@
         <v>44</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>44</v>
@@ -24143,7 +24147,7 @@
         <v>44</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
@@ -24155,13 +24159,13 @@
         <v>44</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AL192" t="s" s="2">
         <v>44</v>
@@ -24175,7 +24179,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24287,7 +24291,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24401,11 +24405,11 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -24430,7 +24434,7 @@
         <v>152</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M195" t="s" s="2">
         <v>119</v>
@@ -24483,7 +24487,7 @@
         <v>44</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>42</v>
@@ -24515,7 +24519,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -24541,16 +24545,16 @@
         <v>207</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>44</v>
@@ -24579,7 +24583,7 @@
       </c>
       <c r="X196" s="2"/>
       <c r="Y196" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>44</v>
@@ -24597,7 +24601,7 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>52</v>
@@ -24612,16 +24616,16 @@
         <v>44</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL196" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>44</v>
@@ -24629,7 +24633,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -24655,16 +24659,16 @@
         <v>381</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>44</v>
@@ -24713,7 +24717,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -24728,16 +24732,16 @@
         <v>44</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>44</v>
@@ -24745,14 +24749,14 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D198" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E198" t="s" s="2">
         <v>42</v>
@@ -24770,16 +24774,16 @@
         <v>44</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
@@ -24829,7 +24833,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>42</v>
@@ -24844,7 +24848,7 @@
         <v>44</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>114</v>
@@ -24853,7 +24857,7 @@
         <v>44</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>44</v>
@@ -24861,14 +24865,14 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E199" t="s" s="2">
         <v>42</v>
@@ -24886,19 +24890,19 @@
         <v>53</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>44</v>
@@ -24947,7 +24951,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -24962,10 +24966,10 @@
         <v>44</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AL199" t="s" s="2">
         <v>44</v>
@@ -24979,7 +24983,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25002,19 +25006,19 @@
         <v>53</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>44</v>
@@ -25063,7 +25067,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -25075,10 +25079,10 @@
         <v>44</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK200" t="s" s="2">
         <v>114</v>
@@ -25095,7 +25099,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25207,7 +25211,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25321,11 +25325,11 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25350,7 +25354,7 @@
         <v>152</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>119</v>
@@ -25403,7 +25407,7 @@
         <v>44</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>42</v>
@@ -25435,7 +25439,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -25458,16 +25462,16 @@
         <v>53</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
@@ -25517,7 +25521,7 @@
         <v>44</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>52</v>
@@ -25541,7 +25545,7 @@
         <v>44</v>
       </c>
       <c r="AM204" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN204" t="s" s="2">
         <v>44</v>
@@ -25549,7 +25553,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -25575,10 +25579,10 @@
         <v>71</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -25608,10 +25612,10 @@
         <v>185</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>44</v>
@@ -25629,7 +25633,7 @@
         <v>44</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>52</v>
@@ -25644,7 +25648,7 @@
         <v>44</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AK205" t="s" s="2">
         <v>114</v>
